--- a/Life_Insurance_Sales_Dashboard.xlsx
+++ b/Life_Insurance_Sales_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91738\OneDrive\Desktop\PowerBI Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A2BB4B-578F-4690-80BD-11D6D0350AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46FEF7A-15FA-495C-AA9E-26437E2D7F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,22 +22,19 @@
     <sheet name="Table4" sheetId="8" r:id="rId7"/>
     <sheet name="Table5" sheetId="9" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Slicer_Gender">#N/A</definedName>
     <definedName name="Slicer_Product">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId10"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
-        <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -57,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="1437">
   <si>
     <t>Customer Name</t>
   </si>
@@ -4269,9 +4266,6 @@
   </si>
   <si>
     <t>Lapsed</t>
-  </si>
-  <si>
-    <t>id541</t>
   </si>
   <si>
     <t>Icon</t>
@@ -4379,7 +4373,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -4671,20 +4665,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4696,19 +4690,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4716,8 +4698,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4739,20 +4738,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4792,60 +4783,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -4966,13 +4903,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4986,6 +4916,47 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -5040,6 +5011,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -5054,14 +5033,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
       </border>
     </dxf>
     <dxf>
@@ -5081,63 +5052,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5170,23 +5085,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5203,38 +5102,38 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5304,6 +5203,50 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
@@ -5311,10 +5254,38 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -5350,7 +5321,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Life_Insurance_Sales_Data.xlsx]Table1!PivotTable3</c:name>
+    <c:name>[Life_Insurance_Sales_Dashboard.xlsx]Table1!PivotTable3</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -5838,7 +5809,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Life_Insurance_Sales_Data.xlsx]Table4!PivotTable10</c:name>
+    <c:name>[Life_Insurance_Sales_Dashboard.xlsx]Table4!PivotTable10</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5898,7 +5869,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6063,7 +6034,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -6142,7 +6113,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -6221,7 +6192,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -6300,7 +6271,7 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -6926,7 +6897,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Life_Insurance_Sales_Data.xlsx]Table5!PivotTable11</c:name>
+    <c:name>[Life_Insurance_Sales_Dashboard.xlsx]Table5!PivotTable11</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -7059,6 +7030,20 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -7092,6 +7077,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F1D5-4C6C-885B-EFFFDDAEBFA5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -7272,7 +7262,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Life_Insurance_Sales_Data.xlsx]Table2!PivotTable7</c:name>
+    <c:name>[Life_Insurance_Sales_Dashboard.xlsx]Table2!PivotTable7</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -7826,7 +7816,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Life_Insurance_Sales_Data.xlsx]Table3!PivotTable9</c:name>
+    <c:name>[Life_Insurance_Sales_Dashboard.xlsx]Table3!PivotTable9</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -8467,7 +8457,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Life_Insurance_Sales_Data.xlsx]Table4!PivotTable10</c:name>
+    <c:name>[Life_Insurance_Sales_Dashboard.xlsx]Table4!PivotTable10</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -10574,7 +10564,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Life_Insurance_Sales_Data.xlsx]Table5!PivotTable11</c:name>
+    <c:name>[Life_Insurance_Sales_Dashboard.xlsx]Table5!PivotTable11</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -11748,7 +11738,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Life_Insurance_Sales_Data.xlsx]Table1!PivotTable3</c:name>
+    <c:name>[Life_Insurance_Sales_Dashboard.xlsx]Table1!PivotTable3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -12268,7 +12258,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Life_Insurance_Sales_Data.xlsx]Table2!PivotTable7</c:name>
+    <c:name>[Life_Insurance_Sales_Dashboard.xlsx]Table2!PivotTable7</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -12328,7 +12318,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12711,7 +12701,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Life_Insurance_Sales_Data.xlsx]Table3!PivotTable9</c:name>
+    <c:name>[Life_Insurance_Sales_Dashboard.xlsx]Table3!PivotTable9</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -18882,8 +18872,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Gender">
@@ -18906,7 +18896,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18960,8 +18950,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Product">
@@ -18984,7 +18974,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -19272,178 +19262,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Sheet9"/>
-      <sheetName val="Sheet8"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="Sheet6"/>
-      <sheetName val="POWER QUERY"/>
-      <sheetName val="Sheet7"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>starting date</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Task 1</v>
-          </cell>
-          <cell r="C3">
-            <v>45658</v>
-          </cell>
-          <cell r="D3">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="C4">
-            <v>45658</v>
-          </cell>
-          <cell r="D4">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>1.2</v>
-          </cell>
-          <cell r="C5">
-            <v>45661</v>
-          </cell>
-          <cell r="D5">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>1.3</v>
-          </cell>
-          <cell r="C6">
-            <v>45662</v>
-          </cell>
-          <cell r="D6">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Task 2</v>
-          </cell>
-          <cell r="C7">
-            <v>45668</v>
-          </cell>
-          <cell r="D7">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>2.1</v>
-          </cell>
-          <cell r="C8">
-            <v>45668</v>
-          </cell>
-          <cell r="D8">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="C9">
-            <v>45672</v>
-          </cell>
-          <cell r="D9">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>2.2999999999999998</v>
-          </cell>
-          <cell r="C10">
-            <v>45674</v>
-          </cell>
-          <cell r="D10">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>2.4</v>
-          </cell>
-          <cell r="C11">
-            <v>45676</v>
-          </cell>
-          <cell r="D11">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>Task 3</v>
-          </cell>
-          <cell r="C12">
-            <v>45680</v>
-          </cell>
-          <cell r="D12">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>3.1</v>
-          </cell>
-          <cell r="C13">
-            <v>45680</v>
-          </cell>
-          <cell r="D13">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>3.2</v>
-          </cell>
-          <cell r="C14">
-            <v>45683</v>
-          </cell>
-          <cell r="D14">
-            <v>5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19872,13 +19690,13 @@
     <cacheField name="Policy No" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Premium Amount" numFmtId="166">
+    <cacheField name="Premium Amount" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5074.95" maxValue="49954.14"/>
     </cacheField>
     <cacheField name="Policy Term" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30"/>
     </cacheField>
-    <cacheField name="Sum Assured" numFmtId="166">
+    <cacheField name="Sum Assured" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="63821.23" maxValue="898513.92000000004"/>
     </cacheField>
     <cacheField name="Sales Channel" numFmtId="0">
@@ -28433,7 +28251,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AAD9ABC-F11F-424E-BD25-2C26A89BD379}" name="PivotTable3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AAD9ABC-F11F-424E-BD25-2C26A89BD379}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -28458,9 +28276,9 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="4"/>
@@ -28531,7 +28349,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Premium Amount" fld="7" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Sum of Premium Amount" fld="7" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="2" format="0" series="1">
@@ -28566,13 +28384,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD78810E-BA23-49C9-9894-ACC03EBDD5D3}" name="PivotTable7" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD78810E-BA23-49C9-9894-ACC03EBDD5D3}" name="PivotTable7" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
@@ -28585,9 +28409,9 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -28656,19 +28480,32 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E8CD856-4F0F-4E51-BE5D-1802F155F934}" name="PivotTable9" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E8CD856-4F0F-4E51-BE5D-1802F155F934}" name="PivotTable9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="166" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="165" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -28735,7 +28572,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Premium Amount" fld="7" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Sum of Premium Amount" fld="7" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
@@ -28770,13 +28607,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02747E56-DE9C-4832-8D5B-33355E15FF58}" name="PivotTable10" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02747E56-DE9C-4832-8D5B-33355E15FF58}" name="PivotTable10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="3"/>
@@ -28787,11 +28630,20 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -28822,7 +28674,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Premium Amount" fld="7" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Sum of Premium Amount" fld="7" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <chartFormats count="12">
     <chartFormat chart="0" format="0" series="1">
@@ -28977,19 +28829,34 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D9C57E4-275F-489A-AB71-5CA5193C9CEB}" name="PivotTable11" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D9C57E4-275F-489A-AB71-5CA5193C9CEB}" name="PivotTable11" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -29017,9 +28884,9 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Premium Amount" fld="7" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Sum of Premium Amount" fld="7" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <chartFormats count="5">
+  <chartFormats count="6">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -29074,6 +28941,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -29091,6 +28970,10 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Gender" xr10:uid="{F4F79C54-1774-4E1B-B0E4-D3724EE56166}" sourceName="Gender">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable3"/>
+    <pivotTable tabId="5" name="PivotTable7"/>
+    <pivotTable tabId="7" name="PivotTable9"/>
+    <pivotTable tabId="8" name="PivotTable10"/>
+    <pivotTable tabId="9" name="PivotTable11"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="773515547">
@@ -29107,6 +28990,10 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Product" xr10:uid="{06B1BA34-0D36-4A76-9610-0D226D147451}" sourceName="Product">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable3"/>
+    <pivotTable tabId="5" name="PivotTable7"/>
+    <pivotTable tabId="7" name="PivotTable9"/>
+    <pivotTable tabId="8" name="PivotTable10"/>
+    <pivotTable tabId="9" name="PivotTable11"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="773515547">
@@ -29130,29 +29017,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D03D5C-17BD-43ED-A4F0-2B84A41C56CD}" name="Table1" displayName="Table1" ref="B14:P514" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="29" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D03D5C-17BD-43ED-A4F0-2B84A41C56CD}" name="Table1" displayName="Table1" ref="B14:P514" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="B14:P514" xr:uid="{F8D03D5C-17BD-43ED-A4F0-2B84A41C56CD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:N514">
     <sortCondition ref="M14:M514"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="14" xr3:uid="{E6B48895-4156-4D73-BEF3-947C77B9CFF9}" name="Cust ID" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{FBE49514-2F7B-4FCB-9D9B-A5F361A0FA64}" name="Customer Name" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{728B20AA-5E88-4522-8E2E-BB1AB231BFA1}" name="Age(yr)" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{5EA02DE8-D051-432B-9254-08D9A90C6473}" name="Gender" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{D0FB2951-9988-4CF0-8D30-7A27AE5A18EB}" name="Region" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{F7156547-791A-4DC3-9943-2042AA680AEA}" name="Product" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{E6B48895-4156-4D73-BEF3-947C77B9CFF9}" name="Cust ID" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{FBE49514-2F7B-4FCB-9D9B-A5F361A0FA64}" name="Customer Name" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{728B20AA-5E88-4522-8E2E-BB1AB231BFA1}" name="Age(yr)" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{5EA02DE8-D051-432B-9254-08D9A90C6473}" name="Gender" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{D0FB2951-9988-4CF0-8D30-7A27AE5A18EB}" name="Region" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{F7156547-791A-4DC3-9943-2042AA680AEA}" name="Product" dataDxfId="20"/>
     <tableColumn id="13" xr3:uid="{20CB5936-33DD-41C5-9A8A-74884C574589}" name="Policy No" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{B2810251-54AA-4684-B7A6-9E5A1F825CC7}" name="Premium Amount" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{5CB8426C-9D52-44DD-818D-13E08A408F69}" name="Policy Term" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{E8BC1512-8ADE-4C1E-B1DF-ACE4096B492B}" name="Sum Assured" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{BC69BA6A-6DB4-43AB-B0C9-16527745D02E}" name="Sales Channel" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{3F8B03DB-BED4-4819-B7D7-F6CC828D04A6}" name="Date of Sale" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{ED0FD9DE-79BA-41DE-957A-A5944AF9B172}" name="Month" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{B2810251-54AA-4684-B7A6-9E5A1F825CC7}" name="Premium Amount" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{5CB8426C-9D52-44DD-818D-13E08A408F69}" name="Policy Term" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{E8BC1512-8ADE-4C1E-B1DF-ACE4096B492B}" name="Sum Assured" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{BC69BA6A-6DB4-43AB-B0C9-16527745D02E}" name="Sales Channel" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{3F8B03DB-BED4-4819-B7D7-F6CC828D04A6}" name="Date of Sale" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{ED0FD9DE-79BA-41DE-957A-A5944AF9B172}" name="Month" dataDxfId="13">
       <calculatedColumnFormula>TEXT(Table1[[#This Row],[Date of Sale]],"mmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DCED6A99-C5F2-4808-9D18-0CE636BB8182}" name="Status" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{2556DEEC-21A2-4CF2-8766-8345B38BF9AB}" name="Icon" dataDxfId="13">
+    <tableColumn id="15" xr3:uid="{DCED6A99-C5F2-4808-9D18-0CE636BB8182}" name="Status" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{2556DEEC-21A2-4CF2-8766-8345B38BF9AB}" name="Icon" dataDxfId="11">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Status]]="Inforce",1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -29161,12 +29048,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D85B2771-6B42-450D-B859-58E0D4379F1E}" name="Table2" displayName="Table2" ref="B6:D18" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D85B2771-6B42-450D-B859-58E0D4379F1E}" name="Table2" displayName="Table2" ref="B6:D18" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B6:D18" xr:uid="{D85B2771-6B42-450D-B859-58E0D4379F1E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{551164CA-3B8F-4872-A02D-EBAE943CBA6D}" name="Task" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1848E3E0-838F-45F0-8967-53FFD1E6E9C0}" name="starting date" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{62A8296D-E94A-40AB-BC6B-E3B13A60A6A1}" name="tenure" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{551164CA-3B8F-4872-A02D-EBAE943CBA6D}" name="Task" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1848E3E0-838F-45F0-8967-53FFD1E6E9C0}" name="starting date" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{62A8296D-E94A-40AB-BC6B-E3B13A60A6A1}" name="tenure" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -29461,9 +29348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6678295-B43A-4B45-A9D1-D72752FBE5EA}">
   <dimension ref="B1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -29472,1489 +29357,1489 @@
   <sheetData>
     <row r="1" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
     </row>
     <row r="31" spans="2:32" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="27"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="27"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
-      <c r="AF44" s="27"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
-      <c r="AF45" s="27"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="27"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30973,8 +30858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P515"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30996,13 +30881,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C2" s="18"/>
+      <c r="B2" s="33" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="32" t="s">
         <v>1400</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -31012,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>1</v>
@@ -31048,29 +30933,29 @@
         <v>6</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1" t="s">
-        <v>1404</v>
+        <v>733</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>INDEX($B$15:$P$514,MATCH($B$4,$B$15:$B$514,0),MATCH(C3,$B$14:$P$14,0))</f>
-        <v>Melanie Walker</v>
+        <v>Nathan Foley</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:P4" si="0">INDEX($B$15:$P$514,MATCH($B$4,$B$15:$B$514,0),MATCH(D3,$B$14:$P$14,0))</f>
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>East</v>
+        <v>South</v>
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -31078,11 +30963,11 @@
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>LI-1126</v>
+        <v>LI-4213</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>35524.42</v>
+        <v>32817.870000000003</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
@@ -31090,15 +30975,15 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>674963.98</v>
+        <v>525085.92000000004</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Bancassurance</v>
+        <v>Agency</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" si="0"/>
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="N4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -31106,26 +30991,26 @@
       </c>
       <c r="O4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Lapsed</v>
+        <v>Inforce</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="34" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="E7" s="34" t="s">
         <v>1413</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="E7" s="20" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="H7" s="20" t="s">
-        <v>1419</v>
-      </c>
-      <c r="I7" s="20"/>
+      <c r="F7" s="34"/>
+      <c r="H7" s="34" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -31135,16 +31020,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>525</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>1417</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -31156,17 +31041,17 @@
         <v>10131.43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>_xlfn.XLOOKUP(E9,$C$15:$C$514,$B$15:$B$514,"NOT FOUND",0,1)</f>
         <v>ID733</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="8">
         <f>COUNTIF($E$15:$E$514,"MALE")</f>
         <v>236</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="8">
         <f>COUNTIF($E$15:$E$514,"FEMALE")</f>
         <v>264</v>
       </c>
@@ -31179,7 +31064,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>1</v>
@@ -31215,7 +31100,7 @@
         <v>6</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -55729,20 +55614,20 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="H7:I7"/>
   </mergeCells>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Lapsed">
+      <formula>NOT(ISERROR(SEARCH("Lapsed",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Inforce">
+      <formula>NOT(ISERROR(SEARCH("Inforce",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O15:O514">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Lapsed">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Lapsed">
       <formula>NOT(ISERROR(SEARCH("Lapsed",O15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="Inforce">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="Inforce">
       <formula>NOT(ISERROR(SEARCH("Inforce",O15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Lapsed">
-      <formula>NOT(ISERROR(SEARCH("Lapsed",O4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Inforce">
-      <formula>NOT(ISERROR(SEARCH("Inforce",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55752,6 +55637,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{691EEE9D-4779-466A-9002-AD156544C06F}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>P4</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{FF5E09FD-D255-4953-BC0D-C4697E219367}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
@@ -55770,25 +55674,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>P15:P514</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{691EEE9D-4779-466A-9002-AD156544C06F}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>P4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -55812,54 +55697,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F3" s="28" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
+      <c r="F3" s="35" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>1406</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>1407</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C7" s="13">
         <v>45658</v>
@@ -55903,7 +55788,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C11" s="13">
         <v>45668</v>
@@ -55958,7 +55843,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C16" s="13">
         <v>45680</v>
@@ -56018,130 +55903,130 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>1421</v>
+      <c r="A3" s="19" t="s">
+        <v>1420</v>
       </c>
       <c r="B3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>2506689.2699999996</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>1293406.4899999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>1213282.7799999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>2660908.1799999997</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>1360020.9099999997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>1300887.27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>2369492.8200000003</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>1342824.8200000005</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>1026667.9999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>3167102.7600000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>1422889.38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>1744213.3800000004</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>2763782.69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>1656302.56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>1107480.1299999999</v>
       </c>
     </row>
@@ -56166,58 +56051,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4" s="42">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5" s="42">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="B6" s="42">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="B7" s="42">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8" s="42">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>1421</v>
       </c>
-      <c r="B3" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="B4" s="26">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="B5" s="26">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="B6" s="26">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="B7" s="26">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="B8" s="26">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="B9" s="42">
         <v>500</v>
       </c>
     </row>
@@ -56242,106 +56127,106 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>1421</v>
+      <c r="A3" s="19" t="s">
+        <v>1420</v>
       </c>
       <c r="B3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1057829.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>1423</v>
       </c>
-      <c r="B4" s="19">
-        <v>1057829.26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="B5" s="18">
+        <v>820820.93999999983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>1424</v>
       </c>
-      <c r="B5" s="19">
-        <v>820820.93999999983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="B6" s="18">
+        <v>1023371.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>1425</v>
       </c>
-      <c r="B6" s="19">
-        <v>1023371.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="18">
+        <v>1081644.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>1426</v>
       </c>
-      <c r="B7" s="19">
-        <v>1081644.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="B8" s="18">
+        <v>1198621.6000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>1427</v>
       </c>
-      <c r="B8" s="19">
-        <v>1198621.6000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="B9" s="18">
+        <v>883892.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>1428</v>
       </c>
-      <c r="B9" s="19">
-        <v>883892.17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="B10" s="18">
+        <v>1026762.1999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>1429</v>
       </c>
-      <c r="B10" s="19">
-        <v>1026762.1999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="18">
+        <v>1089853.8400000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>1430</v>
       </c>
-      <c r="B11" s="19">
-        <v>1089853.8400000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="B12" s="18">
+        <v>975465.14999999967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>1431</v>
       </c>
-      <c r="B12" s="19">
-        <v>975465.14999999967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="B13" s="18">
+        <v>1317960.6100000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>1432</v>
       </c>
-      <c r="B13" s="19">
-        <v>1317960.6100000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="B14" s="18">
+        <v>1482922.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>1433</v>
       </c>
-      <c r="B14" s="19">
-        <v>1482922.73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>1508831.97</v>
       </c>
     </row>
@@ -56366,50 +56251,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>1421</v>
+      <c r="A3" s="19" t="s">
+        <v>1420</v>
       </c>
       <c r="B3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>2540988.8800000004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>2552986.060000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>3167957.5400000024</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>2630890.0299999993</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>2575153.2100000014</v>
       </c>
     </row>
@@ -56434,26 +56319,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>1421</v>
+      <c r="A3" s="19" t="s">
+        <v>1420</v>
       </c>
       <c r="B3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>1402</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>10704958.249999996</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>1403</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>2763017.47</v>
       </c>
     </row>
